--- a/Documenten/Testrapport/Alletests.xlsx
+++ b/Documenten/Testrapport/Alletests.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rober\Documents\1.0 ICA\Leerjaar 2\blok 4\BitBucket\Documenten\Testrapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD1D0ED6-0D53-4724-8412-CF9D4C359F59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F88422-04B1-4C35-9921-12295EA43236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-1140" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{3B0E1F00-CB35-4E60-A298-F210B3B6639D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{3B0E1F00-CB35-4E60-A298-F210B3B6639D}"/>
   </bookViews>
   <sheets>
     <sheet name="Front-end" sheetId="1" r:id="rId1"/>
     <sheet name="Back-end" sheetId="2" r:id="rId2"/>
+    <sheet name="Usertests" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="168">
   <si>
     <t>Test</t>
   </si>
@@ -469,13 +470,82 @@
   </si>
   <si>
     <t>RoutesTest - makeRoute</t>
+  </si>
+  <si>
+    <t>niet geslaagd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> geslaagd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Geslaagd</t>
+  </si>
+  <si>
+    <t>Niet geslaagd</t>
+  </si>
+  <si>
+    <t>FE-USER-7</t>
+  </si>
+  <si>
+    <t>Registreren of inloggen op de app</t>
+  </si>
+  <si>
+    <t>FE-USER-8</t>
+  </si>
+  <si>
+    <t>Het bekijken van activiteiten van mensen die je volgt</t>
+  </si>
+  <si>
+    <t>FE-USER-9</t>
+  </si>
+  <si>
+    <t>Bekijken van Routes</t>
+  </si>
+  <si>
+    <t>FE-USER-10</t>
+  </si>
+  <si>
+    <t>Opnemen van een Activiteit door een gebruiker</t>
+  </si>
+  <si>
+    <t>FE-USER-11</t>
+  </si>
+  <si>
+    <t>Opnemen van een Activiteit door een beheerder</t>
+  </si>
+  <si>
+    <t>FE-USER-12</t>
+  </si>
+  <si>
+    <t>Opslaan van een Route door een beheerder</t>
+  </si>
+  <si>
+    <t>FE-USER-13</t>
+  </si>
+  <si>
+    <t>Zoeken naar een andere gebruiker</t>
+  </si>
+  <si>
+    <t>FE-USER-14</t>
+  </si>
+  <si>
+    <t>Inzien van een andere gebruikers profiel pagina</t>
+  </si>
+  <si>
+    <t>FE-USER-15</t>
+  </si>
+  <si>
+    <t>Inzien van je eigen profiel pagina</t>
+  </si>
+  <si>
+    <t>NOK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,16 +567,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF57D9A3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -514,11 +629,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC1C7D0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC1C7D0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC1C7D0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC1C7D0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -531,6 +661,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,6 +692,2566 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Front-end </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-7FC7-4E61-A739-3F376656B41A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7FC7-4E61-A739-3F376656B41A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Front-end'!$J$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v> geslaagd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>niet geslaagd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Front-end'!$J$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7FC7-4E61-A739-3F376656B41A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Back-end </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CEBA-45FA-9871-20784057818D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CEBA-45FA-9871-20784057818D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Back-end'!$I$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v> Geslaagd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Niet geslaagd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Back-end'!$I$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CEBA-45FA-9871-20784057818D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>End</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> to end</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-50F0-480C-B63C-D4975A555ABA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-50F0-480C-B63C-D4975A555ABA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Usertests!$J$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v> Geslaagd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Niet geslaagd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Usertests!$J$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-50F0-480C-B63C-D4975A555ABA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5952</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>158353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>410764</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139303</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafiek 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{011F5362-763F-401E-9ED7-065005C9A6D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>260803</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD71CE3-A18C-455E-B2E1-A2032DB1ED6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>332241</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>155599</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5B8BDA-3297-453C-984A-CA72B84F7C21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -846,10 +3551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DECA4C1-98F2-4E4A-A07C-A7C509792ED3}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,9 +3562,12 @@
     <col min="1" max="1" width="12.44140625" customWidth="1"/>
     <col min="2" max="2" width="64" customWidth="1"/>
     <col min="4" max="4" width="36.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,8 +3583,14 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -892,8 +3606,14 @@
       <c r="E2" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -910,7 +3630,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -927,7 +3647,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -944,7 +3664,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -961,7 +3681,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -978,7 +3698,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -995,7 +3715,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1012,7 +3732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1029,7 +3749,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1046,7 +3766,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1063,7 +3783,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1080,7 +3800,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1097,7 +3817,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1114,7 +3834,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -1254,24 +3974,26 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50929E4F-D4FC-42CD-8E54-0A6C6C124E7C}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection sqref="A1:E48"/>
+    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="2" max="2" width="60.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1287,8 +4009,14 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
@@ -1304,8 +4032,14 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>47</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
@@ -1322,7 +4056,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1339,7 +4073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1356,7 +4090,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1373,7 +4107,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -1390,7 +4124,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -1407,7 +4141,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1424,7 +4158,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -1441,7 +4175,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -1458,7 +4192,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -1475,7 +4209,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1492,7 +4226,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -1509,7 +4243,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1526,7 +4260,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -2091,5 +4825,212 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3347ADC-1DAB-4990-9DE4-B85C63E1D09C}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="U44" sqref="U44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documenten/Testrapport/Alletests.xlsx
+++ b/Documenten/Testrapport/Alletests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rober\Documents\1.0 ICA\Leerjaar 2\blok 4\BitBucket\Documenten\Testrapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F88422-04B1-4C35-9921-12295EA43236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF63196-F401-4695-B4B1-600552A6BA93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{3B0E1F00-CB35-4E60-A298-F210B3B6639D}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9072" activeTab="2" xr2:uid="{3B0E1F00-CB35-4E60-A298-F210B3B6639D}"/>
   </bookViews>
   <sheets>
     <sheet name="Front-end" sheetId="1" r:id="rId1"/>
@@ -1342,10 +1342,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4834,7 +4834,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="U44" sqref="U44"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4886,10 +4886,10 @@
         <v>50</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -4956,8 +4956,8 @@
       <c r="D6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>167</v>
+      <c r="E6" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Documenten/Testrapport/Alletests.xlsx
+++ b/Documenten/Testrapport/Alletests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rober\Documents\1.0 ICA\Leerjaar 2\blok 4\BitBucket\Documenten\Testrapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF63196-F401-4695-B4B1-600552A6BA93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9B59FA-D3EB-4711-85E4-BC8330E9EE76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9072" activeTab="2" xr2:uid="{3B0E1F00-CB35-4E60-A298-F210B3B6639D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{3B0E1F00-CB35-4E60-A298-F210B3B6639D}"/>
   </bookViews>
   <sheets>
     <sheet name="Front-end" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="190">
   <si>
     <t>Test</t>
   </si>
@@ -539,6 +539,72 @@
   </si>
   <si>
     <t>NOK</t>
+  </si>
+  <si>
+    <t>BE-UNIT-9.12</t>
+  </si>
+  <si>
+    <t>BE-UNIT-9.13</t>
+  </si>
+  <si>
+    <t>BE-UNIT-9.14</t>
+  </si>
+  <si>
+    <t>BE-UNIT-9.15</t>
+  </si>
+  <si>
+    <t>BE-UNIT-9.16</t>
+  </si>
+  <si>
+    <t>UserDAOTest - getByIdTest</t>
+  </si>
+  <si>
+    <t>UserDAOTest - getFollowingUsersTest</t>
+  </si>
+  <si>
+    <t>UserDAOTest - getActivitiesFromUserTest</t>
+  </si>
+  <si>
+    <t>UserDAOTest - getActivitiesByUsersTest</t>
+  </si>
+  <si>
+    <t>UserDAOTest - extractActivityTest</t>
+  </si>
+  <si>
+    <t>BE-UNIT-10.10</t>
+  </si>
+  <si>
+    <t>BE-UNIT-10.11</t>
+  </si>
+  <si>
+    <t>BE-UNIT-10.12</t>
+  </si>
+  <si>
+    <t>BE-UNIT-10.13</t>
+  </si>
+  <si>
+    <t>BE-UNIT-10.14</t>
+  </si>
+  <si>
+    <t>BE-UNIT-10.15</t>
+  </si>
+  <si>
+    <t>UsersTest - isFollowingReturnsFalseTest</t>
+  </si>
+  <si>
+    <t>UsersTest - isFollowingReturnsTrueTest</t>
+  </si>
+  <si>
+    <t>UsersTest - getFeedTest</t>
+  </si>
+  <si>
+    <t>UsersTest - getFeedTestFail</t>
+  </si>
+  <si>
+    <t>UsersTest - getByIdReturns200Test</t>
+  </si>
+  <si>
+    <t>UsersTest - getByIdReturns400Test</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1149,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3980,16 +4046,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50929E4F-D4FC-42CD-8E54-0A6C6C124E7C}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="2" max="2" width="60.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
     <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4033,7 +4100,7 @@
         <v>50</v>
       </c>
       <c r="I2">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -4568,10 +4635,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -4585,10 +4652,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -4602,10 +4669,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -4619,10 +4686,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -4636,10 +4703,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -4653,10 +4720,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
@@ -4670,10 +4737,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -4687,10 +4754,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -4704,10 +4771,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -4721,10 +4788,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -4738,10 +4805,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -4755,10 +4822,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -4772,10 +4839,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -4789,10 +4856,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -4806,18 +4873,205 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>179</v>
+      </c>
+      <c r="B49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>182</v>
+      </c>
+      <c r="B52" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>141</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B59" t="s">
         <v>144</v>
       </c>
-      <c r="C48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" t="s">
-        <v>50</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4833,7 +5087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3347ADC-1DAB-4990-9DE4-B85C63E1D09C}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>

--- a/Documenten/Testrapport/Alletests.xlsx
+++ b/Documenten/Testrapport/Alletests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rober\Documents\1.0 ICA\Leerjaar 2\blok 4\BitBucket\Documenten\Testrapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9B59FA-D3EB-4711-85E4-BC8330E9EE76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D08C1D8-0300-4649-A2C0-0E7B66D0F323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{3B0E1F00-CB35-4E60-A298-F210B3B6639D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{3B0E1F00-CB35-4E60-A298-F210B3B6639D}"/>
   </bookViews>
   <sheets>
     <sheet name="Front-end" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="189">
   <si>
     <t>Test</t>
   </si>
@@ -536,9 +536,6 @@
   </si>
   <si>
     <t>Inzien van je eigen profiel pagina</t>
-  </si>
-  <si>
-    <t>NOK</t>
   </si>
   <si>
     <t>BE-UNIT-9.12</t>
@@ -611,7 +608,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,15 +650,8 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="0"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,12 +667,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF57D9A3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -738,9 +722,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1408,10 +1389,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4048,7 +4029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50929E4F-D4FC-42CD-8E54-0A6C6C124E7C}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -4635,10 +4616,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -4652,10 +4633,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -4669,10 +4650,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -4686,10 +4667,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -4703,10 +4684,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -4873,10 +4854,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
@@ -4890,10 +4871,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
@@ -4907,10 +4888,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -4924,10 +4905,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
@@ -4941,10 +4922,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
@@ -4958,10 +4939,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -5087,8 +5068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3347ADC-1DAB-4990-9DE4-B85C63E1D09C}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5140,10 +5121,10 @@
         <v>50</v>
       </c>
       <c r="J2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -5159,8 +5140,8 @@
       <c r="D3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>167</v>
+      <c r="E3" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5227,7 +5208,7 @@
       <c r="D7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5244,8 +5225,8 @@
       <c r="D8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>167</v>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5261,8 +5242,8 @@
       <c r="D9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>167</v>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
